--- a/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/통합 문서1.xlsx
+++ b/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/통합 문서1.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bumizi\Desktop\Study\Thesis\DBD 분석\맵 분석\3. 콜드윈드 농장(★)\3. 썩은 들판(★)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="1456">
   <si>
     <t>시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -940,10 +943,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3p부상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>저격이네ㅋㅋㅋㅋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1032,10 +1031,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3p빈사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>와 빨간열쇠 나왔다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1240,10 +1235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4p부상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유사클로뎃 펭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1296,10 +1287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2p부상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그래도 좋은거 나오긴했는데</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1328,26 +1315,4370 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3p구조됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2p빈사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>올바른 선택이긴한데…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>이거는 서지까지 들었네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 터트린게 아니라~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아시죠 서지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노미더랑 파로마면 빡칠만하지ㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후레쉬도 있어서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산타 할배ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막에 캠핑당한 애가 파로마 아니여?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>써어지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3p부상(2212)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3p빈사(2202)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4p부상(2201)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2p부상(2101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3p구조됨(2111)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2p빈사(2011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격으로 사람 눕히면 근처 32m 이내에 발전기 터지는거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뻐어어엉!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>수리 스킬체크 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전기 터짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서지 처음봤네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서지 땜에 터진거에요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무튼 내가 아님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2p갈고리(2011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쾅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쿠만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서지 저걸 쓰는 사람있긴하구만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것도 서지에요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무튼 서지 때문임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서치 갓퍽이네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무튼 서지땜에 터짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서지 개사기퍽이네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가 이상한데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서지를 쓰네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4p회복(2012)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전기수리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서지가 더블!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무튼ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한데….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 초반에 트롤을 한거 같지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서지 쿨타임있는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 변수를 남겨놨단 말이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 열쇠 뽑았단 말이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 그렇구나;;;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무트은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전기만 돌리고 나가면 돼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루인 엄청 이득본다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보공구 은근히 내구도 낮다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운걸 해보는 살인마는 환영이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 스텔스하는게 미션이었지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈고리 2번 걸리면은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4p부상(2011)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간열쇠 뽑아서ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보구통은 내구도 엄청 낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 일로 오지 않을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3p회복(2021)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(갈고리에 걸려있는 생존자가 제스처를 통해) 살려달라고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 발전기가 안돌아간다 이말이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은근히가 아님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자깡 마지막에 어떻게 아이템 빨리꺼내요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전기수리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 뻔한 타이밍이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저거 내구 80일텐데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘의 리빙포인트) 서지는 구리기도 오지게 구린데 쿨타임이 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 금방 씀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(부상 소리 흉내) 으어어얼~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2p구조됨(2121)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레리어부상(1121)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 스피릿! 아깝!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어빈사(0121)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아…빠르긴 빠르네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋ플라잉스피릿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1전기 수리하면 사라지는 통..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으앙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아씨 깜짝이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 저게 맞네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이걸 맞네 캬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 갓챔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4p회복(0122)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀래라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깝놀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어갈고리(0122)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 스피릿이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰보겜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크…역시 스피릿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 꼈을까요 에드온을 알아내야되는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모녀반지 아니야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모녀반지인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐아아~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 그냥 에드온으로 따라올 수 있었을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있었을거 같애</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 살인마지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존마 참교육은 역시 너스피릿인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모녀반지 헤어브로치?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모녀반지 아닌거 같은데 아 모르겠어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아예 예상이 안가네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 살인마지;;;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(생존자가 아까 받은 빨간 열쇠를 다시 주며) 그거 주는거야 다시?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어구조됨(1122)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중부양 하는데요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈고리 어깨에 걸림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 하라고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중부양ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹㅇ곰보겜이네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모녀반지 같은데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중부양ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저거 가방끈에 걸려있네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속보 빠르던데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 치료좀 됨?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2p빈사(1022)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 불토 부숴야되는데 이거 발전기 못돌리겠는데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈고리 살에 안박혔는데ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이야 열쇠를 다시주네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부담감ㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나도 안돌아가겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저거 템 내려놓는 키가 뭐에요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신집중은 뭔가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2p갈고리(1022)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어회복(2022)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복장도 의사같네ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>템 내려놓는거 r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 루인 찾는거잖아 지금 얘는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아담 피자뒤지는거봐;;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으아아아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전기 어디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번판은 터진거같네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전기 수리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저거 열쇠 에드온 때문에 정신집중 뜨는거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 5발전기인데 사람 다 죽겠네 클났네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 열쇠 에드온 뭐지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설마 가운데에 루인 있는건 아니겠죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이겜은 즉처랑 열쇠좀 고쳐주면 좋겠음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치만두 찾는 아담</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근처 아군 오라 보는거 아닌가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직까지 발견 못한거 보면은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 맵 루인이 어려운 편은 아니거든요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4p부상(2021)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통은 이제 가장자리에 있어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 4픽이 살리러갔다 맞았어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 스피릿은 강하구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루인 작집안에 떴나??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4p빈사(2120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉처랑 열쇠 맞바꿔주면 좋겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 백퍼 옥수수밭 가운데임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 최소한으로…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해본거긴한데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4p갈고리(2120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 너무 손해를 많이 봐가지고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이길 확률은 좀 적은거 같애</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 모름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 저걸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5발ㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저걸 맞추네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작집 안이면 아까 발견했을거고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수수밭 가운데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 1발전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음성 도네이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손절각 On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어 하나 ㅠㅠㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고 deed님 감사합니다~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마 손전등 미션 이신듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(상자) 이거 나중에 까자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손전등 미션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손전등 못먹어서ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>억지로 주네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전기수리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 돌려야돼. 일단은 발전기가 우선인거 같애</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 실패 아닐거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살하살하~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저걸로 뽑으면 되지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3p부상(2110)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 발전기ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올탈은 불가능같고 열쇠로 둘 나갈 각인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이쪽으로 오는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저거 잠식은 줘야겠는데요? 어쩔 수 없어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지키러갔네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속 캠핑하는 위주로 하기 때문에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가봤자 2대 맞고 살려주는거는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2p회복(2210)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형 열쇠 버려놔 킬러가 보고 죽일수도 있어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굉장히 손해야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3p회복(2220)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해줄 수도 있거든요? 근데 나는 열쇠가 있으니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어차피 상자깡퍽으로 아이템 위치 보이잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전기를 최대한 돌린 다음에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠는 나중에 찾는게 좋을거같은데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아 열쇠 버려놓자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외서버인가요??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료랑 같이 나가는 각을 볼게요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수는 열쇠뿐인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나만 더 돌아가면 되거든?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥에 버려놓고 열쇠 나중에 먹어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(소통) 아 버려놓자고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(소통) 루인이 가운데에? 그럴 수도 있어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(소통) 모르겠는데 내가 루인찾으러 돌아댕긴가 아니라서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3p부상(2210)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4p구조됨(2211)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트렉터 위에 놓으면 찾기 쉽잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥에 버려놓자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3p빈사(2201)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오케이 오케이. 인정 인정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠버려두지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 들고 있으면 죽이잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅에 열쇠 버림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전기 수리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3p갈고리(2201)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기다 버려둘게 어따가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시나 다른 아군이 먹을 수 있기도 하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어차피 상자깡퍽이라 바닥에 있는 아이템이 보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2픽이 쫒기고~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4픽 전부 다 마지막이네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 안주워가려나…걱정…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 누가 주워가면 나중에 어딧는지 못찾겠던데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 발전기는 아직 3개라가지고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2p부상(2101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(소통) 아이템이 보여요 바닥에 있는게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구석에 버려놓자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간만에 긴박감 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3p구조됨(2111)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 보이는건 언제 패치한거지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전기 1개 수리(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전기 1개 수리(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안주워가 걱정마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀 됬음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거구나. 이거 돌리면 1명이랑 같이 살아나갈 수 있어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3p회복(2121)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 한명이 들고 존버탄다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저게 좀 된 패치임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 근데 루인이 어딨는거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랭클린 간접너프네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딨길래 이렇게 안터지나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다 죽을 각이거든 지금?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 봤을 때 다 못나가 3명이상 못나가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루대리 열일하네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 숨었나보네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랬을 때 1명만 찾은 다음에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같이 가자고해서 나가는게 맞는거 같애</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루대리 존버중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루대리 열일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루인 어디갔어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루인 찾기 이렇게 어렵지 않은데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4p회복(2122)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루대리 야근중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 루인도 이렇게 잘 숨으면 좋겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 루인 어디있는거지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루대리 철야중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠 그냥 들자 이제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암튼 2발전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2픽은 아마 사망하겠죠 이제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2p빈사(2022)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전기 1개 수리(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 루인ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 루인은 갈대숲에 있던데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 들고 나갈 각 보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 무슨 세팅이야…우욱…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(루인이) 이런 데에 있는거 아냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 루인은 존재감 뿜뿜이던데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 왜 대리에여?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루인 진짜 안보일때 다시보기 기능에서 찾을 수 있엇음 좋겠음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 데 있었음 발견 못했을 리가 없겠지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2p희생(2x22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몰라요 그냥 그렇게 부름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수수밭에 있음 잘안터지던데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나갈 각 보자 이제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나갈 각을 보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예전부터 그렇게 불렀음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 맵 컨테이너에 잘 나오던데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 열쇠 줍자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3p부상(2x12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 루인 찾는 것도 별로 의미 없고 사실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3픽 죽을거 아냐 3픽 마지막이잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅅㅈㄱㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠 어디갔어요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가기전에 상자 하나 더 까보죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 줍기(열쇠)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3픽 죽었을 때 나갈 각을 보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 진짜 어쩔 수 없어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 저기 있구나 ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 개구는 안나왔고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3픽이 죽어야지 개구멍이 나와요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3바하고 4픽이랑 나가자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 4픽이랑 합류를 해야해 어찌됐든간에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살구님이 열쇠로 나가는거 첨보넹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 달려야될거 같은데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랙터 위에도 뜨는데 불토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠 뜬거 아는 애네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기 공구통도 보이잖아 저 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자로 뜬 열쇠는 살인마도 ㅇㅈ이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠 보여주죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어 열쇠 아는 애랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘이서 나가자고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3p빈사(2x02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3픽은 뭔죄냐 ㄹㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열일중 4픽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3p강종(2xx2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야 가자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가자 가자 가자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강종ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빡종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강종ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나와라 개구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜뽑ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈출이다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주 뭐 ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일로 올거거든?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대탈출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저거 패널티 빨리 생겨야하는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구 찾기 시작!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과연 개구는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈출 가즈아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천천히 빠르게 가야돼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰레기같은ㄱ ㅔ임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천천히 빠르게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼 탈출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸졸 따라온다ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패널티 언제 생기누ㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대탈출 시작ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅆㅇㅆㅆ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤에 왔다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텔스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피난가는중…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천천히 빠르게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천천히 빠르게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠는 꿈에도 생각 못할거야 상자깡 열쇠니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천천히 빠르게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천천히 빠르게ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천천히 빠르게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천천빠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭민 펫 생겼어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머머리의 개구 탐험!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천천히 빠르게는 뭐야ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 한국인ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴장감;;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 공포겜이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴장된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구 찾아라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으어 긴장감ㄷㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 놓치면 안돼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(여긴) 없어 없어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭민 펫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀밭도 나오니까 조심하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들키면 프렌드 실드 가는거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국인 고유스킬 천천히 빠르게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 기대돼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀소리 바스락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어우 긴장감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구보다 천천히 그렇지만 빠르게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구를 찾아봅시당~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듀근듀근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어우 쏠린다 ㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴장된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절대 뛰지마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급할거 없어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신집중하면 뭐에요??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구까지 어딨냐…하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹㅇ긴장되네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸리지만 않으면 돼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 곰보겜 감성인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼭꼭 숨어라 머리카락…이없네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰보겜이냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀엽다ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한명 랜뽑했구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 오랜만에 긴장되네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피릿 개구앞에서 대기하고 있는거 아니여?ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나 더 까서 각자 나가자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살인마가 뭐하나 싶겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구 어디?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 곰보겜이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으어 무서워ㅓㅓㅓ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야 잠깐 딴거보고 온 사이에 3픽 튕겼네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작집에 있는거 아니에요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰지마 뛰지마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작집인가 진짜?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이씨 왜 안나오냐…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>님들 개쫄림 왜 안나옴?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과연!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작집 맞은듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작집인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 겜 망했나봐~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왤케 안보이냐ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구찾는 하이에나들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 어디있냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센터 아니면 작집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없다옹 ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살구 운!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹㅇ 공포겜이네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구를 찾습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 공포네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송천재ㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랙터 옆인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이럴땐 공포겜이네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어우 쫄려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포겜ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구 실종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙쪽인가봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝집?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가운데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀밭에 떴니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜만에 곰보겜하네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 밀밭이면 찾기 진짜 힘든데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈대는 아니겠지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디숨었어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰보겜이자너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고보니 개구에서 존버중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌담근처?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔티티 방송천재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(작집) 이곳도 없어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한바퀴 다 찾았잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거시 데바데다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 찾았나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피릿 개구앞 아님?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가운데로 가자 이제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피릿이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살인마도 안보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왔다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일로와 일로와</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미친…미친 게임이야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋ귀여워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포겜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅌㅌㅌ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헐ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살인마 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅁㅊ ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개무서워ㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헐ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰보겜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷㄷㄷㄷㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어우 숨막혀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왐맼ㅋㅋㅋㅋ공포겜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅠㅠㅠㅠㅠㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 ㄹㅇ 곰보겜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷㄷㄷㄷㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무서오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개무서웤ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 개쫄려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹㅇ곰보겜ㄷㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미친ㄴ다 진짜ㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰보겜ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 곰보겜이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰보겜이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하 씨 왜 안나오냐구요~!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딜 안봤냐구요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와와와와와</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 살인마지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프렌드 실드 가자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미친게임!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰보겜ㄷㄷㄷㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰보곰보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀밭을 안보긴했지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 곰보겜이다 실전편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킬러도 열쇠인거 알지 않을까 발전기 손도 안대잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딨냐ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6천시간도 데바데하면서 공포를 느낍니다ㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구석인가 아예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흩어져서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가면 레전드다ㄷㄷㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도키도키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개무서워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루인도 없고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰보겜이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나오시라구요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피릿도 어리둥절중ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠가 있는데 왜 나가질 못하니ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 곰보겜이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 공포지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랙터 옆?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찾아서 나가면 레전드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하와와</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루대리도 안보이고 개구도 안보이고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랙터 안에도 뜨던데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 할때 맨날 저렇던ㄷ네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 안나와 진짜ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화찍네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매튜야 이게 게임이냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유대감ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 맞다 스피릿이었지ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 데바데는 곰보겜이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전 구석인가봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랙터 안에?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피릿ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 열쇠로 문 못열어요 형들?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋ개꿀잼이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸린거같은데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디야 대체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루인을 먼저 찾을까 개구를 먼저 찾을까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두근두근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음언덕일수도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???어디야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 안나와</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷㄷㄷㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랙터 안에도 생기나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일로일로!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루인도 없고 개구도 없고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 공포겜처럼 하시네ㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰어뛰어뛰어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨쉬지마~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 정도면 루인 못찾을만하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰어뛰어뛰어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극한 스텔스ㄷㄷㄷㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존마 없다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스릴감 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와ㄷㄷㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 위에 아까 봤잖아…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷㄷㄷㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 눈에 띄는 옷 입고 스텔스 하는거 왤케 웃기냐ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미친ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 밀밭 너무 안보여서ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까마귀 안꼬이나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 왜 없는거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건은 맞는데 2발전기 2명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠가 있는데 쓰지를 못하니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ어딨지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랙터 위 아님?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확실하거든요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도대체 어딨는거ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰보겜 진짜ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딨는곀ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살인마 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구석 봤어??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구 실종겜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랙터 위는 안나옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 진짜 어디지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 공포겜이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 어디간거지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오….오 오! 오오!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간가방 너무 잘 뛰자넠ㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구님ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오딧는겨ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스얼마 개구 버그…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작집?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오오우 야 빨리 가자ㅋㅋ 일로 가자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엎드려!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷㄷㄷㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워ㅓㅓㅓㅓ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉아앉아! 앉아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷㄷㄷㄷㄷㄷㄷㄷㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오ㅓ우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹㅇ곰보겜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 안걸리내ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 진짜 오랜만에 곰보겜한닼ㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷㄷㄷㄷㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 곰보겜,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6500시간도 느끼는 공포감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 곰보겜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포겜ㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 곰보겜 맞다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후…후….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 어디갔어 ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포겜이야 ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포겜ㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 개그겜이라면서요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야 이거 아웃라스트보다 더 무섭다 이거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피릿 빡치겠다ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰보겜 맞네ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딨어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초심으로 돌아간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸리면 죽는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 아오지엔 안뜸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술래잡기를 무섭게 하네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개무섭다;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃라스트ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데바데 곰보겜 맞았구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방 벗어ㅜㅜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디 안봤냐? 어디 안봤냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아오지엔 안떠요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암내시아인가 왤케 살떨리지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분을 안나와?????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 숨바꼭질인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넘모무섭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아하…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 유튭각 많이 나오네 ㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 술래잡기에서 곰보겜하누</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 재밌다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇㅈ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 오디 안봤냐ㅋㅋㅋ 다 돌아봤는데 안나오냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀밭 패치되가지고…야야 걸렸다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구멍 왜 안나오냐ㅠㅠㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아예 구석?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랙터 위?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디 안봤지??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구야 나와주어어ㅓ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 스피릿…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 진짜 밀밭각인데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랙터?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4p부상(2xx1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랙터 바로 옆은 봤음? 이 맵 거기 오지게 많이 뜨더네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 씨….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌담근처?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랙터 주위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 보호색이었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭민 팔았따</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도망가!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안돼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손절겜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅅㅈㄱㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안돼!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘가 친구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗…펭미니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭미나아아아아아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손절게임!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅠㅠㅠㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅠㅠㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구야 안녕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 이거 진짜 버그임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호색ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안돼 ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>님들 이거 버그임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4p빈사(2xx0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:05~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:10~</t>
+  </si>
+  <si>
+    <t>15:15~</t>
+  </si>
+  <si>
+    <t>15:20~</t>
+  </si>
+  <si>
+    <t>15:25~</t>
+  </si>
+  <si>
+    <t>15:30~</t>
+  </si>
+  <si>
+    <t>15:35~</t>
+  </si>
+  <si>
+    <t>15:40~</t>
+  </si>
+  <si>
+    <t>15:45~</t>
+  </si>
+  <si>
+    <t>15:50~</t>
+  </si>
+  <si>
+    <t>15:55~</t>
+  </si>
+  <si>
+    <t>16:00~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:05~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:10~</t>
+  </si>
+  <si>
+    <t>16:15~</t>
+  </si>
+  <si>
+    <t>16:20~</t>
+  </si>
+  <si>
+    <t>16:25~</t>
+  </si>
+  <si>
+    <t>16:30~</t>
+  </si>
+  <si>
+    <t>16:35~</t>
+  </si>
+  <si>
+    <t>16:40~</t>
+  </si>
+  <si>
+    <t>16:45~</t>
+  </si>
+  <si>
+    <t>16:50~</t>
+  </si>
+  <si>
+    <t>16:55~</t>
+  </si>
+  <si>
+    <t>17:00~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:05~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:10~</t>
+  </si>
+  <si>
+    <t>17:15~</t>
+  </si>
+  <si>
+    <t>17:20~</t>
+  </si>
+  <si>
+    <t>17:25~</t>
+  </si>
+  <si>
+    <t>17:30~</t>
+  </si>
+  <si>
+    <t>17:35~</t>
+  </si>
+  <si>
+    <t>17:40~</t>
+  </si>
+  <si>
+    <t>17:45~</t>
+  </si>
+  <si>
+    <t>17:50~</t>
+  </si>
+  <si>
+    <t>17:55~</t>
+  </si>
+  <si>
+    <t>18:00~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:05~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:10~</t>
+  </si>
+  <si>
+    <t>18:15~</t>
+  </si>
+  <si>
+    <t>18:20~</t>
+  </si>
+  <si>
+    <t>18:25~</t>
+  </si>
+  <si>
+    <t>18:30~</t>
+  </si>
+  <si>
+    <t>18:35~</t>
+  </si>
+  <si>
+    <t>18:40~</t>
+  </si>
+  <si>
+    <t>18:45~</t>
+  </si>
+  <si>
+    <t>18:50~</t>
+  </si>
+  <si>
+    <t>18:55~</t>
+  </si>
+  <si>
+    <t>손절게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헐헐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭바…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅠㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안돼!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭바…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅅㅈㄱㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안돼친구ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭미나아아아아아ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰일났다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 안나오냐고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 안나오냐고 왜 왜!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리가 보호색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭미니ㅠㅠㅠㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강종 버그아님?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4바ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딜 안봤는데!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨리 안으로 들어가야돼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안돼요ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅅㅈㅅㅈ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷㄷㄷ…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무튼 버그임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강종때문인듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>든다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못찾은 살구가 죽였다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케비넷 숨기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4p희생(2xxx)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이젠 나온다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방이 저렇게 튀는데 안보인다닠ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강종해서 안나온건가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랙터 위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트렉터?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헐ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 강종해서 안나오는건가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4바ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설마 앞에 바위위인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅠㅠㅠㅠㅠㅠㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안돼~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(소통) 트랙터는 안나와요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4바…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제나올때가됬는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자살해줬어ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(소통) 돌 위엔 다 봤어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설마?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강종버그?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강종하면 가끔 버그로 안나오던데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크…우정 보소 ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비상탈출구 스폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매튜야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅠㅠㅠㅠㅠㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌담?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강종일수도..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이걸..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭미니 착해ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 소리 들리니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그겜 수준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅈㄴ궁금하네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강종해서 껍대기 남아서 안뜬걸지도?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 나왔나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강종버그네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 뜬건가? 개구??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헐 진짜 강종이라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딘지 궁금하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구발견하면 이기넹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔드게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디서 강종을 하면서 안나온거자너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열린개구아닌가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닫았따</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이래너저래나 개구발견하면 이기네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 쉣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 어딘지 궁금하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 개구 떳는데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구찾아라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔드게임…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닫았어..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구 있었나보네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닫았어ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헠헠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기 근천가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구 다시 열면 돼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닫아도 열쇠로 따면 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구 찾으면 이긴다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔드게임 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구멍 어딘데어어어어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀로 남겨진자 그립습니다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고있었네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치만 알면되</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디…어디 닫았는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어차피 개구는 열면 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있긴 있었나본데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 따고ㅌㅌㅌㅌ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 열면 되겟다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딘데 스피릿은 한방에 찾았나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구쓰!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구석가자!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피릿은 개구 찾았는뎈ㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구 어디짘ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닫은거죠?ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어케찾은거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치만 알면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디에 있었을까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이러면 건데 근처인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹쇠가 있어서 열 수 있드앙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디 닫았는데 어디?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭민이 죽은곳 근처인갑다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀로남겨진자만 있었어도..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디 있었던 거지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 죽은애 주변 ㄱㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건곳 근처 아닌가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본데만 자꾸 보니…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닫으면 바람소리 안나나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간이 너무 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간이 너무 없다~!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피릿 열쇠인거 알텐데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭민이 죽은데 근처 아닐까요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건곳 근처 ㄱㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭민 죽은 곳 근처 아냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안보인다….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀밭일까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 쫄려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭민이 죽은 근처 봐봐야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭민이 주변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭근처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨리 닫았는디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까 펭민이 죽은데 근처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구찾아라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아ㄷㄷㄷㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 안보임!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽은곳 근처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살인마아조씨 개구 어디에요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작집이어라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구 위에 서있으면 레전드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과연 탈출일까 촉수일까ㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설마 작집??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작집일리가 없지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가면 레전드 유튭각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제발 구사일생ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜어디냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디껄 닫은거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성큰사 각인데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근처인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러게요 펭민이 근처로 가봐요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠들고 성큰사 당하면 레전드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭민이 죽은데 근처 아냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭근처인가보네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭민 어디서 죽었지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디? 펭민이 죽은 데 근처?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤에 있었는디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 막하면서 가보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가보자고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>님들 진짜 시간이 없음!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀밭이라 안보이나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구 위에 있으면 레전드다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살바~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까 4픽 죽은 근처 아닐까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭민이 죽은 근처 아닐까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디지 진짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앜앜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성큰엔딩인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠가 있는데 왜 쓰질 못하니!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성큰완성까지 앞으로…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작집쪽 근처 있었어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작집 근처 아니었슴?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰보겜ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨리 ㅍㅍ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이젠 시간이 없어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭민이 죽은대로 가봐요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성큰엔딩…ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살바?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹㅇ곰보겜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭민아!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아님 처음부터 위치 알고있었던거 아닌가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 결말은 안돼!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걍 문열자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭민아 답을 알려줘!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성큰사..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 공포다 ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성큰엔딩인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간없어ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠 잘가ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭민아 보고있다면!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 방플…채팅 쳐달라는 얘기가 아니라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬챙이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 다 업보 탓이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐거운 겨울맞이 축제로군!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 진짜 개구 어디임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성큰사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 위에서 보고있다면!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살인마 있는 데 있겠지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디얔ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디야ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭민아ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답을 알고있다면 알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답을 알려줘~~!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 열쇠였다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이야 이거 진짜 어디야???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 어리고 여려!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답을 알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어댜!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 죽는닼ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋ채팅쳐줘ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니ㅋㅋ왜ㅠㅠㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답을 알려줘 ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시그널을 보내!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방ㅋㅋㅋㅋㅋ플ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 쓰질 못해~~!!ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 억장ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방플권유ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개구의 위치는! 60초 후에 공개됩니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촉수각이다ㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔드게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜없어ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으앙ㅠㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 진짜 안보이네 ㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딨는거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아버지!!! 정답을 알려줘!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅠㅠㅠㅠㅠㅠㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간다간다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰질못햌ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠가 있는데~~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 쓰질 못해~!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 곳 계속 보면 안보이죠ㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠가 있는데 왜 쓰질 못하니ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날 보고 있다면 정답을 알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 안보이네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 개구안나오나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레전드ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살바~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰질못해ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠를 먹었는데!ㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펭민아 날 보고 있다면!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성큰사!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간다아아아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠를 먹었는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집 안에 있는거 아님?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 ㄹㅇ 어디야ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살바살바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레전드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 ㄹㅇ 개구 어딨냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살바살바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠가 있는데ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠가 있는데 왜 쓰질 못햌ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레전듴ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅎㅎㅎㅎㅎㅎㅎㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠는 있지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸슉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무조건 죽었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 어딨는거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩐지 운수가 좋더라니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디야~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠를 줬는데 왜 쓰질 못하니ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성큰엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노잼사ㅠㅠㅠㅠㅠㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성큰사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디야~!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙글빙글 돌아가는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레전드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성큰사인가ㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그는 열쇠로 죽을 쒔습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망겜ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살구 운빨 진짜 ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠가 있는데 왜 쓰질 못하니!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠 사망ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅈㅈ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아아악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디야…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!!!!!!!!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살밬ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸슉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운수좋은날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헐ㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅂㅂ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문 열다 장렬히 가자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살ㅡ바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디야 진짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딘데ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 이건 어딨는지 궁금하닼ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구석에 떳나보다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하 (살인마) 얘도 개빡쳤겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디에 있던거지ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와우ㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갓ㅡ겜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 진짜 어디누</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아…어디야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹㅇ완전 구석에 있었나보네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살인마에게 물어보죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킬러한테 물어보지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구석구석 봤어야됬을듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피릿만 찾은 개구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살인마한테 물어보징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살구는 운이 나쁘다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그는 좋은 머머리 피자요정이었습니다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 사살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빡쳤네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운이 좋았는데 나빴다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔드게임 사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔드게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝까지 안나와ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌 위에 다시 체크했어야하는거 아님?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전 구석인가본데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 이거 탈출했으면 유툽 레전드각인데 ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애도 찾느라 한참 걸렸을텐데</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1410,6 +5741,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1457,7 +5791,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1492,7 +5826,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1701,12 +6035,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:FY25"/>
+  <dimension ref="A2:HU34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="AH8" sqref="AH8"/>
+      <selection pane="topRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1714,7 +6048,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:229" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2255,13 +6589,157 @@
       <c r="FY2" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="FZ2" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="GA2" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="GB2" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="GC2" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="GD2" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="GE2" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="GF2" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="GG2" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="GH2" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="GI2" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="GJ2" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="GK2" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="GL2" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="GM2" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="GN2" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="GO2" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="GP2" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="GQ2" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="GR2" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="GS2" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="GT2" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="GU2" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="GV2" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="GW2" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="GX2" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="GY2" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="GZ2" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="HA2" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="HB2" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="HC2" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="HD2" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="HE2" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="HF2" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="HG2" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="HH2" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="HI2" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="HJ2" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="HK2" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="HL2" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="HM2" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="HN2" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="HO2" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="HP2" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="HQ2" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="HR2" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="HS2" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="HT2" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="HU2" s="1" t="s">
+        <v>1108</v>
+      </c>
     </row>
-    <row r="3" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:229" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:229" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>181</v>
       </c>
@@ -2281,683 +6759,4064 @@
         <v>234</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>259</v>
       </c>
       <c r="T5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="CU5" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="CW5" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="DE5" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="DL5" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="DQ5" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="DT5" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="DW5" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="FI5" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="FL5" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="FX5" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="GC5" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="GG5" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="HH5" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:229" x14ac:dyDescent="0.3">
+      <c r="CN6" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="DL6" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:229" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="BS8" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="BT8" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="BV8" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="BX8" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="BZ8" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="CD8" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="CG8" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="CI8" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="CL8" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="CM8" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="CN8" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="CR8" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="CT8" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="CU8" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="CV8" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="DA8" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="DE8" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="DG8" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="DL8" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="DT8" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="DU8" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="EW8" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FO8" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="FX8" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="FZ8" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="GD8" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="GG8" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="GJ8" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="HH8" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="HK8" s="1" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:229" x14ac:dyDescent="0.3">
+      <c r="O9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="BT9" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="CL9" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="DE9" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:229" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="BE12" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="BF12" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="BG12" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="BI12" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="BJ12" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="BK12" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="BL12" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="BO12" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="BQ12" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="BR12" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="BS12" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="BT12" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="BU12" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="BV12" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="BW12" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="BX12" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="BY12" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="CA12" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="CB12" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="CC12" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="CE12" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="CF12" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="CG12" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="CH12" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="CI12" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="CJ12" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="CK12" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="CL12" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="CM12" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="CO12" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="CP12" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="CQ12" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="CR12" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="CS12" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="CU12" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="CV12" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="CW12" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="CX12" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="CY12" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="CZ12" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="DA12" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="DC12" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="DD12" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="DF12" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="DG12" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="DH12" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="DI12" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="DL12" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="DM12" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="DN12" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="DO12" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="DR12" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="DS12" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="DT12" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="DU12" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="DV12" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="DX12" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="DZ12" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="EA12" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="EB12" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="EE12" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="EF12" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="EH12" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="EI12" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="EJ12" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="EK12" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="EO12" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="EP12" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="ER12" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="ES12" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="ET12" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="EU12" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="EV12" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="EW12" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="EX12" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="FA12" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="FB12" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="FD12" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="FF12" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="FH12" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="FI12" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="FJ12" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="FK12" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="FL12" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="FM12" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="FN12" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="FO12" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="FP12" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="FQ12" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="FR12" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="FS12" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="FU12" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="FV12" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="FX12" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="FY12" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="FZ12" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="GA12" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="GB12" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="GD12" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="GE12" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="GF12" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="GM12" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="GO12" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="GP12" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="GQ12" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="GS12" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="GT12" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="GV12" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="GW12" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="GZ12" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="HA12" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="HB12" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="HC12" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="HD12" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="HF12" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="HH12" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="HI12" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="HJ12" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="HK12" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="HL12" s="1" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:229" x14ac:dyDescent="0.3">
+      <c r="K13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="BC13" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="BD13" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="BQ13" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="BS13" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="BV13" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="CK13" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="CQ13" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="CX13" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="CY13" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="DD13" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="DL13" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="DM13" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="DN13" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="DS13" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="DZ13" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="EB13" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="EF13" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="EP13" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="EU13" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="EX13" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="FA13" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FB13" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="FN13" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="FU13" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="FZ13" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="GA13" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="GB13" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="GE13" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="GQ13" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="GS13" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="GT13" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="GV13" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="GZ13" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="HA13" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="HC13" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:229" x14ac:dyDescent="0.3">
+      <c r="GQ14" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:229" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="T16" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="U16" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AW16" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AY16" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AZ16" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="BA16" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="BB16" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="BC16" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="BD16" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="BE16" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="BF16" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="BG16" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="BH16" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="BI16" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="BK16" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="BL16" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="BM16" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="BN16" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="BP16" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="BQ16" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="BT16" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="BU16" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="BV16" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="BW16" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BY16" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="BZ16" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="CA16" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="CB16" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="CC16" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="CD16" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="CE16" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="CH16" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="CI16" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="CJ16" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="CK16" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="CL16" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="CM16" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="CP16" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="CQ16" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="CS16" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="CT16" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="CU16" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="CV16" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="CW16" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="CY16" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="CZ16" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="DB16" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="DC16" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="DD16" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="DE16" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="DF16" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="DG16" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="DI16" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="DK16" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="DL16" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="DN16" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="DO16" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="DR16" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="DS16" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="DT16" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="DV16" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="DW16" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="DX16" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="DY16" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="DZ16" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="EA16" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="EB16" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="EC16" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="ED16" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="EE16" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="EF16" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="EG16" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="EH16" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="EI16" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="EJ16" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="EK16" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="EL16" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="EM16" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="EN16" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="EO16" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="EQ16" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="ER16" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="ES16" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="ET16" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="EU16" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="EW16" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="EX16" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="EY16" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="EZ16" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="FA16" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="FB16" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="FC16" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="FD16" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="FE16" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="FF16" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="FG16" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="FH16" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="FI16" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="FJ16" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="FK16" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="FL16" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="FM16" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="FN16" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="FO16" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="FP16" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="FQ16" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="FR16" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="FS16" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="FT16" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="FU16" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="FV16" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="FW16" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="FX16" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="FY16" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="FZ16" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="GA16" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="GB16" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="GC16" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="GD16" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="GE16" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="GF16" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="GG16" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="GH16" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="GI16" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="GJ16" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="GK16" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="GL16" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="GM16" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="GN16" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="GO16" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="GP16" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="GQ16" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="GR16" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="GS16" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="GT16" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="GU16" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="GV16" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="GW16" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="GX16" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="GY16" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="GZ16" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="HA16" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="HB16" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="HC16" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="HD16" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="HE16" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="HF16" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="HG16" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="HH16" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="HI16" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="HJ16" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="HK16" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="HL16" s="1" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="17" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA17" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AD5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>356</v>
+      <c r="AB17" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="AW17" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="BA17" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB17" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="BC17" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="BD17" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE17" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="BF17" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="BG17" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="BH17" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="BI17" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="BJ17" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="BK17" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="BL17" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="BM17" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="BN17" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="BP17" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="BQ17" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="BT17" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="BU17" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="BW17" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="BZ17" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="CB17" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="CC17" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="CD17" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="CE17" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="CI17" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="CJ17" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="CK17" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="CL17" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="CM17" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="CQ17" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="CS17" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="CT17" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="CV17" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="CY17" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="CZ17" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="DB17" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="DC17" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="DD17" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="DF17" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="DG17" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="DK17" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="DL17" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="DO17" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="DR17" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="DS17" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="DT17" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="DV17" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="DW17" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="DX17" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="DY17" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="DZ17" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="EA17" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="EB17" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="EC17" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="ED17" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="EE17" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="EF17" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="EG17" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="EH17" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="EI17" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="EJ17" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="EL17" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="EM17" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="EN17" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="EQ17" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="ER17" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="ES17" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="ET17" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="EU17" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="EW17" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="EX17" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="EY17" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="EZ17" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="FA17" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="FB17" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="FC17" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="FD17" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="FE17" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="FF17" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="FG17" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="FH17" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="FI17" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="FJ17" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="FK17" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="FL17" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="FM17" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="FN17" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="FO17" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="FP17" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="FQ17" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="FR17" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="FS17" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="FT17" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="FU17" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="FV17" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="FW17" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="FX17" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="FY17" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="FZ17" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="GA17" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="GB17" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="GC17" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="GD17" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="GE17" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="GF17" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="GG17" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="GH17" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="GI17" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="GJ17" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="GK17" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="GL17" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="GM17" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="GN17" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="GO17" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="GP17" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="GQ17" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="GR17" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="GS17" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="GT17" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="GU17" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="GV17" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="GW17" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="GX17" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="GY17" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="GZ17" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="HA17" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="HB17" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="HC17" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="HD17" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="HE17" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="HF17" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="HG17" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="HH17" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="HI17" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="HJ17" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="HK17" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="HL17" s="1" t="s">
+        <v>1446</v>
       </c>
     </row>
-    <row r="7" spans="1:181" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>363</v>
+    <row r="18" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="BA18" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="BB18" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="BG18" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="BH18" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="BJ18" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="BL18" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="BM18" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="BP18" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="BW18" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="CB18" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="CC18" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="CD18" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="CJ18" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="CK18" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="CZ18" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="DD18" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="DG18" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="DL18" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="DV18" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="DW18" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="DX18" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="DY18" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="DZ18" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="EA18" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="EB18" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="ED18" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="EE18" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="EG18" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="EH18" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="EI18" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="EJ18" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="EL18" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="EM18" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="EN18" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="EQ18" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="ER18" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="ES18" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="ET18" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="EU18" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="EW18" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="EX18" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="EY18" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="EZ18" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="FA18" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="FB18" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="FC18" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="FD18" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="FE18" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="FF18" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="FG18" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="FH18" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="FI18" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="FJ18" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="FK18" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="FL18" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="FM18" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="FN18" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="FO18" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="FP18" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="FQ18" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="FR18" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="FS18" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="FT18" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="FU18" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="FV18" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="FW18" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="FX18" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="FY18" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="FZ18" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="GA18" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="GB18" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="GC18" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="GD18" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="GE18" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="GF18" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="GG18" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="GH18" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="GI18" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="GJ18" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="GK18" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="GL18" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="GM18" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="GN18" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="GO18" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="GP18" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="GQ18" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="GR18" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="GS18" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="GT18" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="GU18" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="GV18" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="GW18" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="GX18" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="GY18" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="GZ18" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="HA18" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="HB18" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="HC18" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="HD18" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="HE18" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="HF18" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="HG18" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="HH18" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="HI18" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="HJ18" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="HK18" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="HL18" s="1" t="s">
+        <v>1451</v>
       </c>
     </row>
-    <row r="8" spans="1:181" x14ac:dyDescent="0.3">
-      <c r="O8" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:181" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:181" x14ac:dyDescent="0.3">
-      <c r="K12" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:181" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G15" s="1" t="s">
+    <row r="19" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AE15" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AG15" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:181" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE16" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AF16" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG16" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="E18" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AF18" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="E19" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="H19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="N19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="BA19" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="BB19" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="BG19" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="BH19" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="BJ19" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="BP19" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="DG19" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="DV19" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="DY19" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="DZ19" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="EA19" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="EB19" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="EG19" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="EH19" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="EJ19" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="EL19" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="EM19" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="EN19" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="EQ19" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="ER19" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="ES19" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="ET19" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="EW19" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="EX19" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="EY19" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="EZ19" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FA19" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="FB19" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="FC19" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="FD19" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="FE19" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="FF19" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="FG19" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="FH19" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="FI19" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="FK19" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="FL19" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="FM19" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="FN19" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="FO19" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="FP19" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="FQ19" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="FR19" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="FS19" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="FT19" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="FU19" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="FV19" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="FY19" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="FZ19" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="GA19" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="GB19" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="GC19" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="GE19" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="GF19" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="GG19" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="GH19" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="GI19" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="GJ19" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="GK19" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="GL19" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="GM19" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="GN19" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="GO19" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="GP19" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="GQ19" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="GR19" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="GS19" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="GT19" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="GU19" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="GV19" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="GW19" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="GX19" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="GY19" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="GZ19" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="HA19" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="HB19" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="HC19" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="HD19" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="HE19" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="HF19" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="HG19" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="HH19" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="HI19" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="HJ19" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="HK19" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="HL19" s="1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="20" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="BB20" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="BH20" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="EA20" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="EB20" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="EH20" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="EL20" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="EQ20" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="ER20" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="ES20" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="ET20" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="EX20" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="EY20" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="EZ20" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="FA20" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="FB20" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FC20" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="FD20" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="FE20" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="FH20" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="FI20" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="FK20" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="FN20" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="FO20" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="FP20" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="FQ20" s="1">
+        <v>5555</v>
+      </c>
+      <c r="FR20" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="FS20" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="FT20" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="FU20" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="FV20" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="FY20" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="FZ20" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="GA20" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="GB20" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="GE20" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="GF20" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="GG20" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="GH20" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="GJ20" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="GK20" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="GL20" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="GM20" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="GN20" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="GO20" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="GQ20" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="GR20" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="GS20" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="GT20" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="GU20" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="GV20" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="GW20" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="GX20" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="GY20" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="GZ20" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="HA20" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="HB20" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="HC20" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="HD20" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="HE20" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="HF20" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="HG20" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="HH20" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="HI20" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="HJ20" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="HK20" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="HL20" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="21" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="W19" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE19" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="AF19" s="1" t="s">
-        <v>355</v>
+      <c r="W21" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="BA21" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="BB21" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="EA21" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="EB21" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="EQ21" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="ER21" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="ES21" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="ET21" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="EX21" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="EY21" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="EZ21" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="FA21" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="FB21" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="FC21" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="FD21" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="FE21" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="FI21" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="FK21" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="FO21" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="FP21" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="FQ21" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="FR21" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="FS21" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="FT21" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="FU21" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="FY21" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="FZ21" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="GA21" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="GB21" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="GE21" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="GF21" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="GG21" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="GJ21" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="GK21" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="GL21" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="GM21" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="GO21" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="GQ21" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="GT21" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="GW21" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="GX21" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="GY21" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="GZ21" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="HA21" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="HB21" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="HC21" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="HD21" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="HE21" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="HF21" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="HG21" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="HH21" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="HI21" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="HJ21" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="HK21" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="HL21" s="1" t="s">
+        <v>1051</v>
       </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="E20" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="E21" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AE21" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:220" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>198</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AM22" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="BA22" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="ER22" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="ES22" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="ET22" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="EX22" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="EY22" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="EZ22" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="FA22" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="FC22" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="FD22" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="FE22" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="FK22" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="FO22" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="FP22" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="FQ22" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="FR22" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="FS22" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="FT22" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="FU22" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="FY22" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="FZ22" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="GA22" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="GB22" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="GE22" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="GF22" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="GG22" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="GJ22" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="GK22" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="GL22" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="GM22" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="GT22" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="GW22" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="GX22" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="GY22" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="GZ22" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="HB22" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="HC22" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="HD22" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="HE22" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="HF22" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="HG22" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="HH22" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="HI22" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="HJ22" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="HK22" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="HL22" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="23" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W23" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="BA23" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="ER23" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="EX23" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="EY23" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="FA23" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="FC23" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="FD23" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="FE23" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="FP23" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="FQ23" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="FR23" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="FS23" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="FT23" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="FU23" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="FY23" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="FZ23" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="GA23" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="GF23" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="GG23" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="GL23" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="GM23" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="GY23" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="GZ23" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="HB23" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="HC23" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="HD23" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="HE23" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="HF23" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="HG23" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="HH23" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="HI23" s="1">
+        <v>1111111</v>
+      </c>
+      <c r="HJ23" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="HK23" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="HL23" s="1" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="24" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL24" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="ER24" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="EX24" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="EY24" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="FA24" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="FC24" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="FD24" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="FP24" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="FQ24" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="FR24" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="FS24" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="FT24" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="FU24" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="FY24" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="FZ24" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="GA24" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="GF24" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="GG24" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="GL24" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="GM24" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="HB24" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="HC24" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="HD24" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="HE24" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="HF24" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="HG24" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="HH24" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="HI24" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="HJ24" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="HK24" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="25" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="W25" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="X22" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>317</v>
+      <c r="AL25" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="ER25" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="EX25" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="EY25" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="FA25" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="FD25" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="FQ25" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="FR25" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="FT25" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="FU25" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="FY25" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="GA25" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="GL25" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="GM25" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="HB25" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="HC25" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="HD25" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="HE25" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="HF25" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="HG25" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="HH25" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="HI25" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="HJ25" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="HK25" s="1" t="s">
+        <v>1441</v>
       </c>
     </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="E23" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="W23" s="1" t="s">
+    <row r="26" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="W26" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="X23" s="1" t="s">
-        <v>307</v>
+      <c r="AL26" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="ER26" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="EY26" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="FT26" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="FU26" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="FY26" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="GA26" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="GL26" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="GM26" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="HB26" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="HC26" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="HD26" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="HE26" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="HF26" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="HG26" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="HH26" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="HI26" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="HJ26" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="HK26" s="1" t="s">
+        <v>1442</v>
       </c>
     </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="W24" s="1" t="s">
-        <v>297</v>
+    <row r="27" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="ER27" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="EY27" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="FT27" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="FU27" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="FY27" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="GA27" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="GL27" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="HB27" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="HC27" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="HD27" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="HE27" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="HF27" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="HG27" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="HH27" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="HI27" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="HJ27" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="HK27" s="1" t="s">
+        <v>1443</v>
       </c>
     </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="W25" s="1" t="s">
-        <v>298</v>
+    <row r="28" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="ER28" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="EY28" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="FT28" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="FY28" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="GA28" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="GL28" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="HB28" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="HC28" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="HD28" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="HE28" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="HF28" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="HG28" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="HH28" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="HI28" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="HJ28" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="HK28" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="29" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="ER29" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="EY29" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="FT29" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="FY29" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="HC29" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="HD29" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="HE29" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="HF29" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="HG29" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="HH29" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="HI29" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="HJ29" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="HK29" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="30" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="ER30" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="EY30" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="FY30" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="HC30" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="HF30" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="HG30" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="HH30" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="HI30" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="HJ30" s="1" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="31" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="HC31" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="HF31" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="HH31" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="HI31" s="1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="32" spans="2:220" x14ac:dyDescent="0.3">
+      <c r="HC32" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="HF32" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="HH32" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="HI32" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="33" spans="211:217" x14ac:dyDescent="0.3">
+      <c r="HC33" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="HF33" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="HH33" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="HI33" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="34" spans="211:217" x14ac:dyDescent="0.3">
+      <c r="HC34" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="HH34" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="HI34" s="1" t="s">
+        <v>1420</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>